--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3950880000000001</v>
+        <v>0.5431923333333334</v>
       </c>
       <c r="H2">
-        <v>1.185264</v>
+        <v>1.629577</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N2">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q2">
-        <v>2.702502930832</v>
+        <v>5.039890743584111</v>
       </c>
       <c r="R2">
-        <v>24.322526377488</v>
+        <v>45.359016692257</v>
       </c>
       <c r="S2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="T2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3950880000000001</v>
+        <v>0.5431923333333334</v>
       </c>
       <c r="H3">
-        <v>1.185264</v>
+        <v>1.629577</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q3">
-        <v>3.719881133424</v>
+        <v>5.114331269457</v>
       </c>
       <c r="R3">
-        <v>33.478930200816</v>
+        <v>46.028981425113</v>
       </c>
       <c r="S3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="T3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3950880000000001</v>
+        <v>0.5431923333333334</v>
       </c>
       <c r="H4">
-        <v>1.185264</v>
+        <v>1.629577</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N4">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q4">
-        <v>2.14477998464</v>
+        <v>3.820410194378334</v>
       </c>
       <c r="R4">
-        <v>19.30301986176</v>
+        <v>34.383691749405</v>
       </c>
       <c r="S4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="T4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3950880000000001</v>
+        <v>0.5431923333333334</v>
       </c>
       <c r="H5">
-        <v>1.185264</v>
+        <v>1.629577</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N5">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q5">
-        <v>3.050402146896</v>
+        <v>9.765217358421999</v>
       </c>
       <c r="R5">
-        <v>27.453619322064</v>
+        <v>87.886956225798</v>
       </c>
       <c r="S5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="T5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
     </row>
   </sheetData>
